--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2102,28 +2102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.2523883778509</v>
+        <v>261.7539388728676</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.2002552124585</v>
+        <v>358.143286934641</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.7860554168476</v>
+        <v>323.9625942868582</v>
       </c>
       <c r="AD2" t="n">
-        <v>225252.3883778509</v>
+        <v>261753.9388728676</v>
       </c>
       <c r="AE2" t="n">
-        <v>308200.2552124585</v>
+        <v>358143.286934641</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.378453023031138e-06</v>
+        <v>4.400760805928425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.388888888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>278786.0554168476</v>
+        <v>323962.5942868582</v>
       </c>
     </row>
     <row r="3">
@@ -2208,28 +2208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.3080435107392</v>
+        <v>176.8095044972016</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.975655085323</v>
+        <v>241.918564337783</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.6537680035581</v>
+        <v>218.8301960922927</v>
       </c>
       <c r="AD3" t="n">
-        <v>140308.0435107392</v>
+        <v>176809.5044972016</v>
       </c>
       <c r="AE3" t="n">
-        <v>191975.655085323</v>
+        <v>241918.564337783</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.259764191099622e-06</v>
+        <v>6.031417206835618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>173653.7680035581</v>
+        <v>218830.1960922927</v>
       </c>
     </row>
     <row r="4">
@@ -2314,28 +2314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.7296081733059</v>
+        <v>149.0355580546413</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.6605525845955</v>
+        <v>203.9170255150514</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.3729489695591</v>
+        <v>184.4554707992958</v>
       </c>
       <c r="AD4" t="n">
-        <v>124729.6081733059</v>
+        <v>149035.5580546414</v>
       </c>
       <c r="AE4" t="n">
-        <v>170660.5525845955</v>
+        <v>203917.0255150514</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.592153106105011e-06</v>
+        <v>6.646423723809671e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.230324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>154372.9489695591</v>
+        <v>184455.4707992958</v>
       </c>
     </row>
     <row r="5">
@@ -2420,28 +2420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.1216345396203</v>
+        <v>143.4275844209557</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.9874756526551</v>
+        <v>196.2439485831109</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.4321797307695</v>
+        <v>177.5147015605061</v>
       </c>
       <c r="AD5" t="n">
-        <v>119121.6345396203</v>
+        <v>143427.5844209557</v>
       </c>
       <c r="AE5" t="n">
-        <v>162987.4756526551</v>
+        <v>196243.9485831109</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.705382763357598e-06</v>
+        <v>6.855928234885049e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.100115740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>147432.1797307695</v>
+        <v>177514.7015605061</v>
       </c>
     </row>
     <row r="6">
@@ -2526,28 +2526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.4590475496154</v>
+        <v>143.7649974309509</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.4491390185416</v>
+        <v>196.7056119489975</v>
       </c>
       <c r="AC6" t="n">
-        <v>147.8497825929646</v>
+        <v>177.9323044227012</v>
       </c>
       <c r="AD6" t="n">
-        <v>119459.0475496154</v>
+        <v>143764.9974309509</v>
       </c>
       <c r="AE6" t="n">
-        <v>163449.1390185416</v>
+        <v>196705.6119489975</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.704332395479559e-06</v>
+        <v>6.853984779309211e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.10300925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>147849.7825929646</v>
+        <v>177932.3044227012</v>
       </c>
     </row>
   </sheetData>
@@ -2823,28 +2823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.9979308404502</v>
+        <v>207.2890672386015</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.3351569889708</v>
+        <v>283.622046743952</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.8750999009787</v>
+        <v>256.5535566688353</v>
       </c>
       <c r="AD2" t="n">
-        <v>171997.9308404502</v>
+        <v>207289.0672386014</v>
       </c>
       <c r="AE2" t="n">
-        <v>235335.1569889708</v>
+        <v>283622.046743952</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.809815341898054e-06</v>
+        <v>5.355941687199104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.596064814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>212875.0999009787</v>
+        <v>256553.5566688353</v>
       </c>
     </row>
     <row r="3">
@@ -2929,28 +2929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.4423760130168</v>
+        <v>142.8845489324304</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.4263282866712</v>
+        <v>195.500943470676</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.8291488853287</v>
+        <v>176.8426078131875</v>
       </c>
       <c r="AD3" t="n">
-        <v>119442.3760130168</v>
+        <v>142884.5489324304</v>
       </c>
       <c r="AE3" t="n">
-        <v>163426.3282866711</v>
+        <v>195500.943470676</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.645784031054351e-06</v>
+        <v>6.949427025783978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.311342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>147829.1488853287</v>
+        <v>176842.6078131875</v>
       </c>
     </row>
     <row r="4">
@@ -3035,28 +3035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.8226676357294</v>
+        <v>135.264840555143</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.0007071270629</v>
+        <v>185.0753223110678</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.398534376739</v>
+        <v>167.4119933045978</v>
       </c>
       <c r="AD4" t="n">
-        <v>111822.6676357294</v>
+        <v>135264.840555143</v>
       </c>
       <c r="AE4" t="n">
-        <v>153000.7071270629</v>
+        <v>185075.3223110678</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.828113979764855e-06</v>
+        <v>7.296976047444526e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>138398.534376739</v>
+        <v>167411.9933045978</v>
       </c>
     </row>
   </sheetData>
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.79827606336991</v>
+        <v>115.6399096997308</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.7071835146236</v>
+        <v>158.2236261238615</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.3281119651977</v>
+        <v>143.1229853148976</v>
       </c>
       <c r="AD2" t="n">
-        <v>94798.27606336991</v>
+        <v>115639.9096997308</v>
       </c>
       <c r="AE2" t="n">
-        <v>129707.1835146236</v>
+        <v>158223.6261238615</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.041671244238115e-06</v>
+        <v>8.607702033003219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>117328.1119651977</v>
+        <v>143122.9853148976</v>
       </c>
     </row>
     <row r="3">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.2232919497946</v>
+        <v>116.0649255861555</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.2887090008071</v>
+        <v>158.805151610045</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.8541374751562</v>
+        <v>143.6490108248562</v>
       </c>
       <c r="AD3" t="n">
-        <v>95223.2919497946</v>
+        <v>116064.9255861555</v>
       </c>
       <c r="AE3" t="n">
-        <v>130288.7090008071</v>
+        <v>158805.1516100451</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.041974363519047e-06</v>
+        <v>8.608347597744399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>117854.1374751562</v>
+        <v>143649.0108248562</v>
       </c>
     </row>
   </sheetData>
@@ -3735,28 +3735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.4532201863642</v>
+        <v>133.4821531333363</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.4952128279706</v>
+        <v>182.6361707339346</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.9412837440862</v>
+        <v>165.2056309306147</v>
       </c>
       <c r="AD2" t="n">
-        <v>111453.2201863643</v>
+        <v>133482.1531333363</v>
       </c>
       <c r="AE2" t="n">
-        <v>152495.2128279707</v>
+        <v>182636.1707339346</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.665057329260569e-06</v>
+        <v>7.441333504761658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.577546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>137941.2837440862</v>
+        <v>165205.6309306147</v>
       </c>
     </row>
     <row r="3">
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.8272649737131</v>
+        <v>122.685605720093</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.9563121219698</v>
+        <v>167.863858253087</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.7899553159862</v>
+        <v>151.8431672198637</v>
       </c>
       <c r="AD3" t="n">
-        <v>100827.2649737131</v>
+        <v>122685.6057200929</v>
       </c>
       <c r="AE3" t="n">
-        <v>137956.3121219698</v>
+        <v>167863.858253087</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.00491927738012e-06</v>
+        <v>8.131370760480608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.189814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>124789.9553159862</v>
+        <v>151843.1672198637</v>
       </c>
     </row>
   </sheetData>
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.52166942113841</v>
+        <v>111.6999868696967</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.2239857530417</v>
+        <v>152.8328498906837</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.2727843057722</v>
+        <v>138.2466971994107</v>
       </c>
       <c r="AD2" t="n">
-        <v>91521.66942113842</v>
+        <v>111699.9868696967</v>
       </c>
       <c r="AE2" t="n">
-        <v>125223.9857530417</v>
+        <v>152832.8498906837</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.967989691022844e-06</v>
+        <v>8.835937998126372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.592013888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>113272.7843057722</v>
+        <v>138246.6971994107</v>
       </c>
     </row>
   </sheetData>
@@ -4435,28 +4435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.0826477086311</v>
+        <v>217.7143386914061</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.1335115143172</v>
+        <v>297.8863630761885</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.3565588365427</v>
+        <v>269.4565066704214</v>
       </c>
       <c r="AD2" t="n">
-        <v>182082.6477086311</v>
+        <v>217714.3386914061</v>
       </c>
       <c r="AE2" t="n">
-        <v>249133.5115143172</v>
+        <v>297886.3630761885</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.687498738187835e-06</v>
+        <v>5.081424973635254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.795717592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>225356.5588365427</v>
+        <v>269456.5066704214</v>
       </c>
     </row>
     <row r="3">
@@ -4541,28 +4541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.5099919726943</v>
+        <v>148.1792012818571</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.3600640101359</v>
+        <v>202.7453203987342</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.1011386029074</v>
+        <v>183.395591574781</v>
       </c>
       <c r="AD3" t="n">
-        <v>124509.9919726943</v>
+        <v>148179.2012818571</v>
       </c>
       <c r="AE3" t="n">
-        <v>170360.0640101359</v>
+        <v>202745.3203987342</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.544063246368347e-06</v>
+        <v>6.700986025534747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.39525462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>154101.1386029074</v>
+        <v>183395.591574781</v>
       </c>
     </row>
     <row r="4">
@@ -4647,28 +4647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.444375041963</v>
+        <v>137.1135843511258</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.2195987449521</v>
+        <v>187.6048551335503</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.4056580928515</v>
+        <v>169.700111064725</v>
       </c>
       <c r="AD4" t="n">
-        <v>113444.375041963</v>
+        <v>137113.5843511258</v>
       </c>
       <c r="AE4" t="n">
-        <v>155219.5987449521</v>
+        <v>187604.8551335503</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.804171558582821e-06</v>
+        <v>7.192789372176677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.094328703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>140405.6580928515</v>
+        <v>169700.111064725</v>
       </c>
     </row>
     <row r="5">
@@ -4753,28 +4753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.8294529538949</v>
+        <v>137.4986622630577</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.7464793324955</v>
+        <v>188.1317357210937</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.8822539366014</v>
+        <v>170.176706908475</v>
       </c>
       <c r="AD5" t="n">
-        <v>113829.4529538949</v>
+        <v>137498.6622630577</v>
       </c>
       <c r="AE5" t="n">
-        <v>155746.4793324955</v>
+        <v>188131.7357210937</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.799810396651674e-06</v>
+        <v>7.184543445644283e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.100115740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>140882.2539366015</v>
+        <v>170176.706908475</v>
       </c>
     </row>
   </sheetData>
@@ -5050,28 +5050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.90747865878143</v>
+        <v>119.2209047586057</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.0153787389155</v>
+        <v>163.1233015457638</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.2749636452741</v>
+        <v>147.5550425912728</v>
       </c>
       <c r="AD2" t="n">
-        <v>89907.47865878143</v>
+        <v>119220.9047586057</v>
       </c>
       <c r="AE2" t="n">
-        <v>123015.3787389155</v>
+        <v>163123.3015457638</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.875388495168668e-06</v>
+        <v>8.884586800319781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.811921296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>111274.9636452741</v>
+        <v>147555.0425912728</v>
       </c>
     </row>
   </sheetData>
@@ -5347,28 +5347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.0120850595154</v>
+        <v>168.8027559013801</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.7801763769075</v>
+        <v>230.9633776761674</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.7134367367908</v>
+        <v>208.9205570699571</v>
       </c>
       <c r="AD2" t="n">
-        <v>146012.0850595153</v>
+        <v>168802.7559013801</v>
       </c>
       <c r="AE2" t="n">
-        <v>199780.1763769075</v>
+        <v>230963.3776761674</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.200498941687146e-06</v>
+        <v>6.272933695022084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.060763888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>180713.4367367908</v>
+        <v>208920.5570699571</v>
       </c>
     </row>
     <row r="3">
@@ -5453,28 +5453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.5509826958987</v>
+        <v>129.2563126831918</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.7877552220646</v>
+        <v>176.8541893991269</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.8739764781098</v>
+        <v>159.9754737793374</v>
       </c>
       <c r="AD3" t="n">
-        <v>106550.9826958987</v>
+        <v>129256.3126831918</v>
       </c>
       <c r="AE3" t="n">
-        <v>145787.7552220646</v>
+        <v>176854.1893991269</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.923712288661365e-06</v>
+        <v>7.6904218603307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.129050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>131873.9764781098</v>
+        <v>159975.4737793374</v>
       </c>
     </row>
     <row r="4">
@@ -5559,28 +5559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.1741338621235</v>
+        <v>128.8794638494166</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.2721340222965</v>
+        <v>176.3385681993588</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.4075654419685</v>
+        <v>159.5090627431961</v>
       </c>
       <c r="AD4" t="n">
-        <v>106174.1338621235</v>
+        <v>128879.4638494166</v>
       </c>
       <c r="AE4" t="n">
-        <v>145272.1340222965</v>
+        <v>176338.5681993588</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.938378070155733e-06</v>
+        <v>7.719166589379527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.111689814814816</v>
       </c>
       <c r="AH4" t="n">
-        <v>131407.5654419685</v>
+        <v>159509.0627431961</v>
       </c>
     </row>
   </sheetData>
@@ -5856,28 +5856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.6607670967858</v>
+        <v>197.4278066942069</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.5596376283035</v>
+        <v>270.1294350190071</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.3188581775354</v>
+        <v>244.3486608699153</v>
       </c>
       <c r="AD2" t="n">
-        <v>162660.7670967858</v>
+        <v>197427.8066942069</v>
       </c>
       <c r="AE2" t="n">
-        <v>222559.6376283035</v>
+        <v>270129.4350190071</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.938516904751707e-06</v>
+        <v>5.649895507035628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.399305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>201318.8581775354</v>
+        <v>244348.6608699153</v>
       </c>
     </row>
     <row r="3">
@@ -5962,28 +5962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.6850424401258</v>
+        <v>137.8915456261141</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.9171346135002</v>
+        <v>188.6692960712179</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.9411835206124</v>
+        <v>170.6629632532542</v>
       </c>
       <c r="AD3" t="n">
-        <v>114685.0424401258</v>
+        <v>137891.5456261141</v>
       </c>
       <c r="AE3" t="n">
-        <v>156917.1346135002</v>
+        <v>188669.2960712179</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.738330112075498e-06</v>
+        <v>7.187698825171812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.244791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>141941.1835206125</v>
+        <v>170662.9632532542</v>
       </c>
     </row>
     <row r="4">
@@ -6068,28 +6068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.1578136801434</v>
+        <v>133.3643168661317</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.7227804968585</v>
+        <v>182.4749419545762</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.3380098670305</v>
+        <v>165.0597895996722</v>
       </c>
       <c r="AD4" t="n">
-        <v>110157.8136801434</v>
+        <v>133364.3168661317</v>
       </c>
       <c r="AE4" t="n">
-        <v>150722.7804968585</v>
+        <v>182474.9419545762</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.86129391999019e-06</v>
+        <v>7.42412171753013e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.108796296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>136338.0098670305</v>
+        <v>165059.7895996722</v>
       </c>
     </row>
   </sheetData>
@@ -6365,28 +6365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.6403678493055</v>
+        <v>249.833682821393</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.3121764391203</v>
+        <v>341.8334667202702</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.4143125825731</v>
+        <v>309.2093604228733</v>
       </c>
       <c r="AD2" t="n">
-        <v>213640.3678493055</v>
+        <v>249833.682821393</v>
       </c>
       <c r="AE2" t="n">
-        <v>292312.1764391203</v>
+        <v>341833.4667202702</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.483279329121299e-06</v>
+        <v>4.626161042295487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.168981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>264414.3125825732</v>
+        <v>309209.3604228733</v>
       </c>
     </row>
     <row r="3">
@@ -6471,28 +6471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.6900388120252</v>
+        <v>159.9610905453356</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.657097324557</v>
+        <v>218.8658210692874</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.9382445273261</v>
+        <v>197.9775742866065</v>
       </c>
       <c r="AD3" t="n">
-        <v>135690.0388120252</v>
+        <v>159961.0905453356</v>
       </c>
       <c r="AE3" t="n">
-        <v>185657.097324557</v>
+        <v>218865.8210692874</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.335214229535912e-06</v>
+        <v>6.213251145552033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.592013888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>167938.2445273261</v>
+        <v>197977.5742866065</v>
       </c>
     </row>
     <row r="4">
@@ -6577,28 +6577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.1118500537286</v>
+        <v>144.2123095864468</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.3423322042827</v>
+        <v>197.3176441741662</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.6577306746633</v>
+        <v>178.4859251512927</v>
       </c>
       <c r="AD4" t="n">
-        <v>120111.8500537286</v>
+        <v>144212.3095864468</v>
       </c>
       <c r="AE4" t="n">
-        <v>164342.3322042827</v>
+        <v>197317.6441741663</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.681853745344952e-06</v>
+        <v>6.859014272136502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.16087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>148657.7306746633</v>
+        <v>178485.9251512927</v>
       </c>
     </row>
     <row r="5">
@@ -6683,28 +6683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.1034308381009</v>
+        <v>141.2038903708191</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.2260803113743</v>
+        <v>193.2013922812578</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.9343280852169</v>
+        <v>174.7625225618463</v>
       </c>
       <c r="AD5" t="n">
-        <v>117103.4308381009</v>
+        <v>141203.8903708191</v>
       </c>
       <c r="AE5" t="n">
-        <v>160226.0803113743</v>
+        <v>193201.3922812578</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.744585545319557e-06</v>
+        <v>6.975878857506477e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.091435185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>144934.3280852169</v>
+        <v>174762.5225618463</v>
       </c>
     </row>
   </sheetData>
@@ -6980,28 +6980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.0215616690431</v>
+        <v>152.2976712817982</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.850551536228</v>
+        <v>208.3803927467238</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.3083234598399</v>
+        <v>188.492860526754</v>
       </c>
       <c r="AD2" t="n">
-        <v>119021.5616690431</v>
+        <v>152297.6712817982</v>
       </c>
       <c r="AE2" t="n">
-        <v>162850.551536228</v>
+        <v>208380.3927467238</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.499777492845886e-06</v>
+        <v>7.015294727373377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.733796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>147308.3234598399</v>
+        <v>188492.860526754</v>
       </c>
     </row>
     <row r="3">
@@ -7086,28 +7086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.9019572296943</v>
+        <v>125.0576728618915</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.7949975955644</v>
+        <v>171.1094251647108</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.3577206321018</v>
+        <v>154.7789817806249</v>
       </c>
       <c r="AD3" t="n">
-        <v>102901.9572296943</v>
+        <v>125057.6728618915</v>
       </c>
       <c r="AE3" t="n">
-        <v>140794.9975955643</v>
+        <v>171109.4251647108</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.972091963439416e-06</v>
+        <v>7.962047834389499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.172453703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>127357.7206321018</v>
+        <v>154778.9817806249</v>
       </c>
     </row>
   </sheetData>
@@ -7383,28 +7383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.17282566063945</v>
+        <v>119.3780723283627</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.3243911482266</v>
+        <v>163.3383451484491</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.5046597825428</v>
+        <v>147.7495627343334</v>
       </c>
       <c r="AD2" t="n">
-        <v>98172.82566063944</v>
+        <v>119378.0723283627</v>
       </c>
       <c r="AE2" t="n">
-        <v>134324.3911482266</v>
+        <v>163338.3451484491</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.990189532359239e-06</v>
+        <v>8.347726039837062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.325810185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>121504.6597825428</v>
+        <v>147749.5627343334</v>
       </c>
     </row>
     <row r="3">
@@ -7489,28 +7489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.22916878020115</v>
+        <v>118.4344154479244</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.0332381732082</v>
+        <v>162.0471921734306</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.3367326353151</v>
+        <v>146.5816355871058</v>
       </c>
       <c r="AD3" t="n">
-        <v>97229.16878020114</v>
+        <v>118434.4154479244</v>
       </c>
       <c r="AE3" t="n">
-        <v>133033.2381732082</v>
+        <v>162047.1921734306</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.033262221936324e-06</v>
+        <v>8.437836800108607e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.279513888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>120336.7326353151</v>
+        <v>146581.6355871058</v>
       </c>
     </row>
   </sheetData>
@@ -12719,28 +12719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.14250329385746</v>
+        <v>113.5880223536246</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.4416821638386</v>
+        <v>155.4161433340394</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.2788268836798</v>
+        <v>140.5834447422085</v>
       </c>
       <c r="AD2" t="n">
-        <v>93142.50329385746</v>
+        <v>113588.0223536246</v>
       </c>
       <c r="AE2" t="n">
-        <v>127441.6821638386</v>
+        <v>155416.1433340395</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.021768021677132e-06</v>
+        <v>8.742743618948495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.438657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>115278.8268836798</v>
+        <v>140583.4447422085</v>
       </c>
     </row>
   </sheetData>
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.26803182830756</v>
+        <v>117.2928760189395</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.4546564270298</v>
+        <v>160.485287565529</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.6224927259654</v>
+        <v>145.1687969628349</v>
       </c>
       <c r="AD2" t="n">
-        <v>98268.03182830756</v>
+        <v>117292.8760189395</v>
       </c>
       <c r="AE2" t="n">
-        <v>134454.6564270298</v>
+        <v>160485.287565529</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.681903223370547e-06</v>
+        <v>8.757506093869338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.205439814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>121622.4927259655</v>
+        <v>145168.7969628349</v>
       </c>
     </row>
   </sheetData>
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.5815944955058</v>
+        <v>176.6281966063637</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.1371131304122</v>
+        <v>241.6704908827991</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.0819219825963</v>
+        <v>218.605798419679</v>
       </c>
       <c r="AD2" t="n">
-        <v>153581.5944955058</v>
+        <v>176628.1966063637</v>
       </c>
       <c r="AE2" t="n">
-        <v>210137.1131304122</v>
+        <v>241670.4908827991</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.07542516499859e-06</v>
+        <v>5.968103015514774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.211226851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>190081.9219825963</v>
+        <v>218605.798419679</v>
       </c>
     </row>
     <row r="3">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.4317947885137</v>
+        <v>133.3930560448</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.097653536524</v>
+        <v>182.5142641667133</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.6771055499281</v>
+        <v>165.095358955072</v>
       </c>
       <c r="AD3" t="n">
-        <v>110431.7947885137</v>
+        <v>133393.0560448</v>
       </c>
       <c r="AE3" t="n">
-        <v>151097.653536524</v>
+        <v>182514.2641667133</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.835030807787238e-06</v>
+        <v>7.442177162700548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.17824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>136677.1055499281</v>
+        <v>165095.358955072</v>
       </c>
     </row>
     <row r="4">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.2590539241311</v>
+        <v>131.2203151804173</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.1248136313153</v>
+        <v>179.5414242615045</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.9879893128645</v>
+        <v>162.4062427180084</v>
       </c>
       <c r="AD4" t="n">
-        <v>108259.0539241311</v>
+        <v>131220.3151804173</v>
       </c>
       <c r="AE4" t="n">
-        <v>148124.8136313153</v>
+        <v>179541.4242615046</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.892418064108177e-06</v>
+        <v>7.55354162098717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.117476851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>133987.9893128645</v>
+        <v>162406.2427180084</v>
       </c>
     </row>
   </sheetData>
@@ -13822,28 +13822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.2208692573508</v>
+        <v>238.9975103647047</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.636829387151</v>
+        <v>327.0069375068476</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.666577600114</v>
+        <v>295.7978543484105</v>
       </c>
       <c r="AD2" t="n">
-        <v>191220.8692573507</v>
+        <v>238997.5103647047</v>
       </c>
       <c r="AE2" t="n">
-        <v>261636.829387151</v>
+        <v>327006.9375068476</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.585817497435625e-06</v>
+        <v>4.852007858432119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>236666.577600114</v>
+        <v>295797.8543484105</v>
       </c>
     </row>
     <row r="3">
@@ -13928,28 +13928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.8497135377397</v>
+        <v>153.7381235999678</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.666106627317</v>
+        <v>210.3512831567137</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.7099027668023</v>
+        <v>190.2756519221772</v>
       </c>
       <c r="AD3" t="n">
-        <v>129849.7135377397</v>
+        <v>153738.1235999678</v>
       </c>
       <c r="AE3" t="n">
-        <v>177666.1066273171</v>
+        <v>210351.2831567138</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.442596735949739e-06</v>
+        <v>6.45966176375784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>160709.9027668023</v>
+        <v>190275.6519221772</v>
       </c>
     </row>
     <row r="4">
@@ -14034,28 +14034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.7249154608201</v>
+        <v>140.6133255230482</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.708178873259</v>
+        <v>192.3933554026558</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.465854433476</v>
+        <v>174.0316035888509</v>
       </c>
       <c r="AD4" t="n">
-        <v>116724.9154608201</v>
+        <v>140613.3255230482</v>
       </c>
       <c r="AE4" t="n">
-        <v>159708.1788732591</v>
+        <v>192393.3554026558</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.745840325383337e-06</v>
+        <v>7.028665678539189e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.123263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>144465.8544334761</v>
+        <v>174031.6035888509</v>
       </c>
     </row>
     <row r="5">
@@ -14140,28 +14140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.9780262684211</v>
+        <v>139.8664363306491</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.6862521297935</v>
+        <v>191.3714286591903</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.5414589441233</v>
+        <v>173.1072080994982</v>
       </c>
       <c r="AD5" t="n">
-        <v>115978.0262684211</v>
+        <v>139866.4363306491</v>
       </c>
       <c r="AE5" t="n">
-        <v>158686.2521297935</v>
+        <v>191371.4286591902</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.761480242951379e-06</v>
+        <v>7.058012298329884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>143541.4589441234</v>
+        <v>173107.2080994982</v>
       </c>
     </row>
   </sheetData>
@@ -14437,28 +14437,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.2056331917216</v>
+        <v>134.6009607354008</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.6834769115906</v>
+        <v>184.1669726533865</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.684211746741</v>
+        <v>166.5903352633685</v>
       </c>
       <c r="AD2" t="n">
-        <v>107205.6331917216</v>
+        <v>134600.9607354008</v>
       </c>
       <c r="AE2" t="n">
-        <v>146683.4769115906</v>
+        <v>184166.9726533865</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.261648985803785e-06</v>
+        <v>8.157136588481275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.085069444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>132684.211746741</v>
+        <v>166590.3352633685</v>
       </c>
     </row>
   </sheetData>
@@ -14734,28 +14734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.3760685464218</v>
+        <v>124.9187111490868</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.4436976154257</v>
+        <v>170.9192916186933</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.944509632524</v>
+        <v>154.6069943133851</v>
       </c>
       <c r="AD2" t="n">
-        <v>103376.0685464218</v>
+        <v>124918.7111490868</v>
       </c>
       <c r="AE2" t="n">
-        <v>141443.6976154257</v>
+        <v>170919.2916186933</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.86548131984427e-06</v>
+        <v>7.960121739623946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>127944.509632524</v>
+        <v>154606.9943133851</v>
       </c>
     </row>
     <row r="3">
@@ -14840,28 +14840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.21367142342444</v>
+        <v>120.7563140260894</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.7485222397426</v>
+        <v>165.2241162430102</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.7928738014655</v>
+        <v>149.4553584823266</v>
       </c>
       <c r="AD3" t="n">
-        <v>99213.67142342444</v>
+        <v>120756.3140260894</v>
       </c>
       <c r="AE3" t="n">
-        <v>135748.5222397426</v>
+        <v>165224.1162430102</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.018976547835592e-06</v>
+        <v>8.276211923526706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.233217592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>122792.8738014655</v>
+        <v>149455.3584823266</v>
       </c>
     </row>
   </sheetData>
@@ -15137,28 +15137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.1850570295187</v>
+        <v>159.8836381612673</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.6519619195368</v>
+        <v>218.7598473004472</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.1743009925348</v>
+        <v>197.8817145055293</v>
       </c>
       <c r="AD2" t="n">
-        <v>126185.0570295187</v>
+        <v>159883.6381612673</v>
       </c>
       <c r="AE2" t="n">
-        <v>172651.9619195368</v>
+        <v>218759.8473004472</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.354974165199208e-06</v>
+        <v>6.646821511534525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.881365740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>156174.3009925348</v>
+        <v>197881.7145055293</v>
       </c>
     </row>
     <row r="3">
@@ -15243,28 +15243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.4297605922877</v>
+        <v>126.867123903814</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.885405558191</v>
+        <v>173.5851959076138</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.2486229926821</v>
+        <v>157.0184684385922</v>
       </c>
       <c r="AD3" t="n">
-        <v>104429.7605922877</v>
+        <v>126867.123903814</v>
       </c>
       <c r="AE3" t="n">
-        <v>142885.405558191</v>
+        <v>173585.1959076138</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.961841023052703e-06</v>
+        <v>7.849136488281435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.134837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>129248.6229926821</v>
+        <v>157018.4684385922</v>
       </c>
     </row>
     <row r="4">
@@ -15349,28 +15349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.8363245140417</v>
+        <v>127.273687825568</v>
       </c>
       <c r="AB4" t="n">
-        <v>143.4416842522689</v>
+        <v>174.1414746016917</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.7518112289394</v>
+        <v>157.5216566748495</v>
       </c>
       <c r="AD4" t="n">
-        <v>104836.3245140417</v>
+        <v>127273.687825568</v>
       </c>
       <c r="AE4" t="n">
-        <v>143441.6842522689</v>
+        <v>174141.4746016917</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.95867141439389e-06</v>
+        <v>7.842856909966027e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.137731481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>129751.8112289394</v>
+        <v>157521.6566748495</v>
       </c>
     </row>
   </sheetData>
